--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.08790827142100001</v>
+        <v>0.07648940279000001</v>
       </c>
       <c r="R2">
-        <v>0.7911744427890001</v>
+        <v>0.6884046251100001</v>
       </c>
       <c r="S2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="T2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>5.668966983482</v>
+        <v>5.668966983481999</v>
       </c>
       <c r="R3">
-        <v>51.02070285133801</v>
+        <v>51.020702851338</v>
       </c>
       <c r="S3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="T3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>1.133090926624</v>
+        <v>1.122836789068</v>
       </c>
       <c r="R4">
-        <v>10.197818339616</v>
+        <v>10.105531101612</v>
       </c>
       <c r="S4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="T4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.02062312956</v>
+        <v>0.006432693606</v>
       </c>
       <c r="R5">
-        <v>0.18560816604</v>
+        <v>0.057894242454</v>
       </c>
       <c r="S5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="T5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
     </row>
   </sheetData>
